--- a/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_4.xlsx
+++ b/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="24" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="20" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -477,142 +477,138 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.07356442857142867</v>
+        <v>-0.1056749761904762</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.07356442857142866</v>
+        <v>-0.1056749761904762</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.387778780781446e-17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.116</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.03964265552643076</v>
+        <v>-0.01196997959183684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.1034022380952382</v>
+        <v>-0.1014087142857143</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.07396168414154661</v>
+        <v>-0.1014087142857143</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.02944055395369158</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.224</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.02634452992573166</v>
+        <v>-0.6682702244897964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.1140015952380953</v>
+        <v>-0.1051056428571429</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.07435893971166457</v>
+        <v>-0.1015927210884354</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.03964265552643076</v>
+        <v>-0.003512921768707516</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.332</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.02924312975098292</v>
+        <v>-0.002771040816326578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.1130656666666667</v>
+        <v>-0.111867761904762</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.07475619528178253</v>
+        <v>-0.1017767278911564</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.03830947138488415</v>
+        <v>-0.01009103401360556</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.388</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.6797856579292268</v>
+        <v>-0.008190374149659868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.1126659523809524</v>
+        <v>-0.1139307142857144</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.07515345085190048</v>
+        <v>-0.1019607346938775</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.03751250152905193</v>
+        <v>-0.01196997959183684</v>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-0.008528757536041973</v>
+        <v>-0.01309573469387761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.1086718095238096</v>
+        <v>-0.1131300476190477</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.07555070642201843</v>
+        <v>-0.1021447414965986</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.03312110310179113</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>-0.01417997946701617</v>
-      </c>
+        <v>-0.01098530612244907</v>
+      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.1083390952380953</v>
+        <v>-0.107397761904762</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.07594796199213638</v>
+        <v>-0.1023287482993197</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.03239113324595891</v>
+        <v>-0.005069013605442263</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -620,16 +616,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.1055349047619048</v>
+        <v>-0.1094662380952381</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.07634521756225435</v>
+        <v>-0.1025127551020408</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.02918968719965043</v>
+        <v>-0.006953482993197341</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -637,16 +633,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.1076651428571429</v>
+        <v>-0.1138672380952382</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.0767424731323723</v>
+        <v>-0.1026967619047619</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03092266972477059</v>
+        <v>-0.01117047619047627</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -654,16 +650,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04000000000000001</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.1087920476190476</v>
+        <v>-0.1242002857142858</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.07713972870249025</v>
+        <v>-0.102880768707483</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.03165231891655737</v>
+        <v>-0.0213195170068028</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -671,16 +667,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.1136574761904762</v>
+        <v>-0.1293335238095239</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.0775369842726082</v>
+        <v>-0.1030647755102041</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.03612049191786797</v>
+        <v>-0.02626874829931983</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -688,16 +684,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.1071267619047619</v>
+        <v>-0.1394001904761906</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.07793423984272616</v>
+        <v>-0.1032487823129252</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.02919252206203574</v>
+        <v>-0.03615140816326541</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -705,16 +701,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.09999528571428573</v>
+        <v>-0.1491316190476192</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.07833149541284412</v>
+        <v>-0.1034327891156463</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.02166379030144161</v>
+        <v>-0.0456988299319729</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -722,16 +718,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.05600000000000001</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.09052704761904759</v>
+        <v>-0.1591971428571429</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.07872875098296207</v>
+        <v>-0.1036167959183673</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.01179829663608552</v>
+        <v>-0.05558034693877559</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -739,16 +735,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.09852899999999999</v>
+        <v>-0.1713335238095239</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.07912600655308002</v>
+        <v>-0.1038008027210884</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.01940299344691997</v>
+        <v>-0.0675327210884355</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -756,16 +752,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1005954285714285</v>
+        <v>-0.1829330000000001</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.07952326212319798</v>
+        <v>-0.1039848095238095</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.02107216644823055</v>
+        <v>-0.07894819047619057</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -773,16 +769,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.1062650476190476</v>
+        <v>-0.1939340476190477</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.07992051769331593</v>
+        <v>-0.1041688163265306</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.02634452992573166</v>
+        <v>-0.08976523129251712</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -790,16 +786,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07200000000000001</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.104131619047619</v>
+        <v>-0.2128682380952382</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.08031777326343389</v>
+        <v>-0.1043528231292517</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.02381384578418515</v>
+        <v>-0.1085154149659865</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -807,16 +803,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.07600000000000001</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.09866628571428571</v>
+        <v>-0.2398697142857145</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.08071502883355185</v>
+        <v>-0.1045368299319728</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.01795125688073386</v>
+        <v>-0.1353328843537417</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -824,16 +820,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.095000619047619</v>
+        <v>-0.2743356666666669</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.0811122844036698</v>
+        <v>-0.1047208367346939</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.0138883346439492</v>
+        <v>-0.169614829931973</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -841,16 +837,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.1025325238095238</v>
+        <v>-0.3159325714285716</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.08150953997378775</v>
+        <v>-0.104904843537415</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.02102298383573604</v>
+        <v>-0.2110277278911566</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -858,16 +854,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08800000000000001</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.09793109523809521</v>
+        <v>-0.3590581428571431</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.0819067955439057</v>
+        <v>-0.1050888503401361</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.0160242996941895</v>
+        <v>-0.2539692925170071</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -875,16 +871,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.1001994761904762</v>
+        <v>-0.4009166666666668</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.08230405111402365</v>
+        <v>-0.1052728571428571</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.01789542507645252</v>
+        <v>-0.2956438095238096</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -892,16 +888,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.09720066666666666</v>
+        <v>-0.4449813333333335</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.08270130668414162</v>
+        <v>-0.1054568639455782</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.01449935998252504</v>
+        <v>-0.3395244693877553</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -909,16 +905,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.09533847619047617</v>
+        <v>-0.4910550476190478</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.08309856225425957</v>
+        <v>-0.1056408707482993</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.0122399139362166</v>
+        <v>-0.3854141768707485</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -926,16 +922,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.1008757142857143</v>
+        <v>-0.5396566190476195</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.08349581782437752</v>
+        <v>-0.1058248775510204</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.01737989646133675</v>
+        <v>-0.4338317414965991</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -943,16 +939,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.1102714285714286</v>
+        <v>-0.5866615714285719</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.08389307339449548</v>
+        <v>-0.1060088843537415</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.02637835517693313</v>
+        <v>-0.4806526870748304</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -960,16 +956,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.1118677619047619</v>
+        <v>-0.6363995238095242</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.08429032896461343</v>
+        <v>-0.1061928911564626</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.02757743294014851</v>
+        <v>-0.5302066326530617</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -977,16 +973,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.1139307142857143</v>
+        <v>-0.6779400000000003</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.08468758453473139</v>
+        <v>-0.1063768979591837</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.02924312975098292</v>
+        <v>-0.5715631020408166</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -994,16 +990,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.1131300476190476</v>
+        <v>-0.7151404285714289</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.08508484010484935</v>
+        <v>-0.1065609047619048</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.02804520751419828</v>
+        <v>-0.6085795238095242</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1011,16 +1007,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.1073977619047619</v>
+        <v>-0.7524742857142861</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.0854820956749673</v>
+        <v>-0.1067449115646259</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.0219156662297946</v>
+        <v>-0.6457293741496603</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1028,16 +1024,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.1094662380952381</v>
+        <v>-0.7751991428571434</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.08587935124508525</v>
+        <v>-0.106928918367347</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.02358688685015282</v>
+        <v>-0.6682702244897964</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1045,16 +1041,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.1138672380952381</v>
+        <v>-0.7694000952380957</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.0862766068152032</v>
+        <v>-0.107112925170068</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.02759063128003489</v>
+        <v>-0.6622871700680277</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1062,16 +1058,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.1242002857142857</v>
+        <v>-0.7574650952380957</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.08667386238532117</v>
+        <v>-0.1072969319727891</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.03752642332896455</v>
+        <v>-0.6501681632653066</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1079,16 +1075,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.1293335238095238</v>
+        <v>-0.7247368095238099</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.08707111795543912</v>
+        <v>-0.1074809387755102</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.04226240585408472</v>
+        <v>-0.6172558707482997</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1096,16 +1092,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.1394001904761905</v>
+        <v>-0.6813975238095242</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.08746837352555707</v>
+        <v>-0.1076649455782313</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.05193181695063341</v>
+        <v>-0.573732578231293</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1113,16 +1109,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.1491316190476191</v>
+        <v>-0.639731904761905</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.08786562909567502</v>
+        <v>-0.1078489523809524</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.06126598995194404</v>
+        <v>-0.5318829523809526</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1130,16 +1126,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.1591971428571429</v>
+        <v>-0.5848639523809527</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.08826288466579298</v>
+        <v>-0.1080329591836735</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.07093425819134989</v>
+        <v>-0.4768309931972792</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1147,16 +1143,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.1713335238095238</v>
+        <v>-0.5236002857142861</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.08866014023591093</v>
+        <v>-0.1082169659863946</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.0826733835736129</v>
+        <v>-0.4153833197278915</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1164,16 +1160,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.182933</v>
+        <v>-0.472531523809524</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.08905739580602889</v>
+        <v>-0.1084009727891157</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.09387560419397112</v>
+        <v>-0.3641305510204084</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1181,16 +1177,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.1939340476190476</v>
+        <v>-0.4173371904761907</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.08945465137614685</v>
+        <v>-0.1085849795918368</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.1044793962429008</v>
+        <v>-0.3087522108843539</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1198,16 +1194,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.2128682380952381</v>
+        <v>-0.3654690952380955</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.0898519069462648</v>
+        <v>-0.1087689863945579</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.1230163311489733</v>
+        <v>-0.2567001088435376</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1215,16 +1211,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.2398697142857143</v>
+        <v>-0.3186747619047621</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.09024916251638275</v>
+        <v>-0.1089529931972789</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.1496205517693316</v>
+        <v>-0.2097217687074831</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1232,16 +1228,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.2743356666666667</v>
+        <v>-0.2724724761904763</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.0906464180865007</v>
+        <v>-0.109137</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.183689248580166</v>
+        <v>-0.1633354761904763</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1249,16 +1245,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.3159325714285715</v>
+        <v>-0.2422687142857144</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.09104367365661867</v>
+        <v>-0.1093210068027211</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.2248888977719528</v>
+        <v>-0.1329477074829933</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1266,16 +1262,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.3590581428571429</v>
+        <v>-0.211928142857143</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.09144092922673662</v>
+        <v>-0.1095050136054422</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.2676172136304062</v>
+        <v>-0.1024231292517008</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1283,16 +1279,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.4009166666666666</v>
+        <v>-0.1925306666666668</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.09183818479685457</v>
+        <v>-0.1096890204081633</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.309078481869812</v>
+        <v>-0.08284164625850349</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1300,16 +1296,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.4449813333333332</v>
+        <v>-0.1787326190476191</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.09223544036697252</v>
+        <v>-0.1098730272108844</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.3527458929663607</v>
+        <v>-0.06885959183673472</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1317,16 +1313,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.4910550476190476</v>
+        <v>-0.1658070952380953</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.09263269593709048</v>
+        <v>-0.1100570340136055</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.3984223516819572</v>
+        <v>-0.05575006122448986</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1334,16 +1330,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.5396566190476192</v>
+        <v>-0.1496082857142858</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.09302995150720844</v>
+        <v>-0.1102410408163266</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.4466266675404107</v>
+        <v>-0.03936724489795923</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1351,16 +1347,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.5866615714285714</v>
+        <v>-0.1358040476190477</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.09342720707732639</v>
+        <v>-0.1104250476190477</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.4932343643512451</v>
+        <v>-0.02537900000000003</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1368,16 +1364,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.6363995238095239</v>
+        <v>-0.117600761904762</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.09382446264744435</v>
+        <v>-0.1106090544217687</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.5425750611620795</v>
+        <v>-0.006991707482993242</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1385,16 +1381,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.67794</v>
+        <v>-0.110132761904762</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.0942217182175623</v>
+        <v>-0.1107930612244898</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.5837182817824377</v>
+        <v>0.0006602993197278445</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1402,16 +1398,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.7151404285714286</v>
+        <v>-0.1064016190476191</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.09461897378768025</v>
+        <v>-0.1109770680272109</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.6205214547837483</v>
+        <v>0.004575448979591792</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1419,16 +1415,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.7524742857142858</v>
+        <v>-0.1077350000000001</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.09501622935779822</v>
+        <v>-0.111161074829932</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.6574580563564876</v>
+        <v>0.003426074829931916</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1436,16 +1432,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.775199142857143</v>
+        <v>-0.1060683333333334</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.09541348492791617</v>
+        <v>-0.1113450816326531</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.6797856579292268</v>
+        <v>0.005276748299319664</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1453,16 +1449,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.7694000952380954</v>
+        <v>-0.1104002380952382</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.09581074049803412</v>
+        <v>-0.1115290884353742</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.6735893547400613</v>
+        <v>0.00112885034013599</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1470,16 +1466,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.7574650952380952</v>
+        <v>-0.1140025238095239</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.09620799606815207</v>
+        <v>-0.1117130952380953</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.6612570991699431</v>
+        <v>-0.002289428571428637</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1487,16 +1483,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.7247368095238096</v>
+        <v>-0.114668142857143</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.09660525163827002</v>
+        <v>-0.1118971020408164</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.6281315578855395</v>
+        <v>-0.002771040816326578</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1504,16 +1500,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.6813975238095238</v>
+        <v>-0.1078001904761906</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.09700250720838799</v>
+        <v>-0.1120811088435375</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.5843950166011358</v>
+        <v>0.004280918367346898</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1521,16 +1517,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.6397319047619048</v>
+        <v>-0.1063950000000001</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.09739976277850594</v>
+        <v>-0.1122651156462586</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.5423321419833989</v>
+        <v>0.005870115646258486</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1538,16 +1534,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.5848639523809525</v>
+        <v>-0.1037904761904762</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.09779701834862389</v>
+        <v>-0.1124491224489796</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.4870669340323286</v>
+        <v>0.008658646258503405</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1555,16 +1551,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.5236002857142857</v>
+        <v>-0.1090554761904762</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.09819427391874185</v>
+        <v>-0.1126331292517007</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.4254060117955439</v>
+        <v>0.003577653061224512</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1572,16 +1568,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.4725315238095238</v>
+        <v>-0.1070557619047619</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.0985915294888598</v>
+        <v>-0.1128171360544218</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.373939994320664</v>
+        <v>0.005761374149659895</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1589,16 +1585,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.4173371904761904</v>
+        <v>-0.09612666666666669</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.09898878505897776</v>
+        <v>-0.1130011428571429</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.3183484054172127</v>
+        <v>0.01687447619047622</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1606,16 +1602,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.3654690952380952</v>
+        <v>-0.09019604761904765</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.09938604062909571</v>
+        <v>-0.113185149659864</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.2660830546089995</v>
+        <v>0.02298910204081636</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1623,16 +1619,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.3186747619047618</v>
+        <v>-0.102935</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.09978329619921367</v>
+        <v>-0.1133691564625851</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.2188914657055482</v>
+        <v>0.01043415646258505</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1640,16 +1636,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.2724724761904762</v>
+        <v>-0.1122037619047619</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1001805517693316</v>
+        <v>-0.1135531632653062</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.1722919244211446</v>
+        <v>0.001349401360544247</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1657,16 +1653,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.2422687142857143</v>
+        <v>-0.1197349523809524</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1005778073394496</v>
+        <v>-0.1137371700680273</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.1416909069462647</v>
+        <v>-0.005997782312925123</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1674,16 +1670,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.2119281428571429</v>
+        <v>-0.1216632380952381</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1009750629095675</v>
+        <v>-0.1139211768707484</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.1109530799475753</v>
+        <v>-0.007742061224489769</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1691,16 +1687,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1925306666666667</v>
+        <v>-0.1112638095238096</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1013723184796855</v>
+        <v>-0.1141051836734694</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.09115834818698119</v>
+        <v>0.002841374149659889</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1708,16 +1704,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.178732619047619</v>
+        <v>-0.1105951904761905</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1017695740498034</v>
+        <v>-0.1142891904761905</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.07696304499781559</v>
+        <v>0.003694000000000003</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1725,16 +1721,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1658070952380952</v>
+        <v>-0.1226635714285715</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1021668296199214</v>
+        <v>-0.1144731972789116</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.06364026561817383</v>
+        <v>-0.008190374149659868</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1742,16 +1738,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1496082857142857</v>
+        <v>-0.1205979047619048</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1025640851900393</v>
+        <v>-0.1146572040816327</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.04704420052424635</v>
+        <v>-0.00594070068027211</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1759,16 +1755,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1358040476190476</v>
+        <v>-0.1112605238095239</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1029613407601573</v>
+        <v>-0.1148412108843538</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.03284270685889031</v>
+        <v>0.003580687074829933</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1776,16 +1772,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1176007619047619</v>
+        <v>-0.1167261904761906</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1033585963302752</v>
+        <v>-0.1150252176870749</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.01424216557448668</v>
+        <v>-0.001700972789115685</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1793,16 +1789,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1101327619047619</v>
+        <v>-0.1215958571428573</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1037558519003932</v>
+        <v>-0.115209224489796</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.006376910004368727</v>
+        <v>-0.006386632653061261</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1810,16 +1806,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1064016190476191</v>
+        <v>-0.1231956666666668</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1041531074705112</v>
+        <v>-0.1153932312925171</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.002248511577107912</v>
+        <v>-0.007802435374149694</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1827,16 +1823,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.107735</v>
+        <v>-0.1282644761904763</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1045503630406291</v>
+        <v>-0.1155772380952382</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.003184636959370907</v>
+        <v>-0.01268723809523811</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1844,16 +1840,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.1060683333333334</v>
+        <v>-0.1192653333333334</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1049476186107471</v>
+        <v>-0.1157612448979593</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.001120714722586291</v>
+        <v>-0.003504088435374142</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1861,16 +1857,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1104002380952381</v>
+        <v>-0.1102002380952382</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.105344874180865</v>
+        <v>-0.1159452517006803</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.005055363914373112</v>
+        <v>0.005745013605442148</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1878,16 +1874,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1140025238095239</v>
+        <v>-0.1200728571428573</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.105742129750983</v>
+        <v>-0.1161292585034014</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.008260394058540871</v>
+        <v>-0.003943598639455814</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1895,16 +1891,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1146681428571429</v>
+        <v>-0.1294090000000001</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1061393853211009</v>
+        <v>-0.1163132653061225</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.008528757536041973</v>
+        <v>-0.01309573469387761</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1912,16 +1908,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1078001904761905</v>
+        <v>-0.1264088095238096</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1065366408912189</v>
+        <v>-0.1164972721088436</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.001263549584971602</v>
+        <v>-0.009911537414965976</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1929,16 +1925,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.106395</v>
+        <v>-0.1247368571428572</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1069338964613369</v>
+        <v>-0.1166812789115647</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.0005388964613368408</v>
+        <v>-0.008055578231292479</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1946,16 +1942,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1037904761904762</v>
+        <v>-0.1168652857142858</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1073311520314548</v>
+        <v>-0.1168652857142858</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0.003540675840978613</v>
+        <v>1.387778780781446e-17</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1963,16 +1959,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1090554761904762</v>
+        <v>-0.1201924285714287</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1077284076015728</v>
+        <v>-0.1201924285714287</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.001327068588903413</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1980,16 +1976,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.1070557619047619</v>
+        <v>-0.1310604285714287</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1081256631716907</v>
+        <v>-0.1310604285714287</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0.001069901266928838</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1997,16 +1993,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.09612666666666664</v>
+        <v>-0.1380629523809525</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1085229187418087</v>
+        <v>-0.1380629523809525</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0.01239625207514203</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2014,16 +2010,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.09019604761904759</v>
+        <v>-0.1342650476190477</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1089201743119266</v>
+        <v>-0.1342650476190477</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0.01872412669287903</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2031,16 +2027,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.102935</v>
+        <v>-0.1343960000000001</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1093174298820446</v>
+        <v>-0.1343960000000001</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0.006382429882044585</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2048,16 +2044,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1122037619047619</v>
+        <v>-0.1284632857142858</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1097146854521625</v>
+        <v>-0.1284632857142858</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-0.002489076452599354</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2065,16 +2061,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1197349523809523</v>
+        <v>-0.129858380952381</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1101119410222805</v>
+        <v>-0.129858380952381</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>-0.009623011358671857</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2082,16 +2078,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1216632380952381</v>
+        <v>-0.13859</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1105091965923984</v>
+        <v>-0.13859</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>-0.01115404150283963</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2099,16 +2095,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1112638095238095</v>
+        <v>-0.1357270952380953</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1109064521625164</v>
+        <v>-0.1357270952380953</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-0.0003573573612930814</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2116,16 +2112,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1105951904761905</v>
+        <v>-0.1364639047619048</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1113037077326343</v>
+        <v>-0.1364639047619048</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0.0007085172564438719</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2133,16 +2129,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1226635714285714</v>
+        <v>-0.1389345238095239</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1117009633027523</v>
+        <v>-0.1389345238095239</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>-0.01096260812581912</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2150,16 +2146,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1205979047619048</v>
+        <v>-0.137134761904762</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1120982188728703</v>
+        <v>-0.137134761904762</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-0.008499685889034492</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2167,16 +2163,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1112605238095238</v>
+        <v>-0.1399630952380954</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1124954744429882</v>
+        <v>-0.1399630952380954</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0.001234950633464377</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2184,16 +2180,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1167261904761905</v>
+        <v>-0.1433603809523811</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1128927300131062</v>
+        <v>-0.1433603809523811</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>-0.003833460463084332</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2201,428 +2197,20 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1215958571428572</v>
+        <v>-0.1461644523809525</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1132899855832241</v>
+        <v>-0.1461644523809525</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>-0.008305871559633068</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-0.1231956666666667</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-0.1136872411533421</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>-0.00950842551332462</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-0.1282644761904762</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-0.11408449672346</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>-0.01417997946701617</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-0.1192653333333333</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-0.114481752293578</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>-0.004783581039755347</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-0.1102002380952381</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-0.114879007863696</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0.004678769768457824</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-0.1200728571428572</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-0.1152762634338139</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>-0.004796593709043298</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-0.1294090000000001</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-0.1156735190039319</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>-0.01373548099606822</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-0.1264088095238095</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-0.1160707745740498</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>-0.01033803494975974</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-0.1247368571428571</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-0.1164680301441678</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>-0.008268826998689374</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-0.1168652857142857</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-0.1168652857142857</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-0.1201924285714286</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-0.1201924285714286</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-0.1310604285714286</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-0.1310604285714286</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-0.1380629523809524</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-0.1380629523809524</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-0.1342650476190476</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-0.1342650476190476</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-0.134396</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-0.134396</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-0.1284632857142857</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-0.1284632857142857</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-0.1298583809523809</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-0.1298583809523809</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-0.13859</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-0.13859</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-0.1357270952380952</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-0.1357270952380952</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-0.1364639047619048</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-0.1364639047619048</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-0.1389345238095238</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-0.1389345238095238</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-0.1371347619047619</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-0.1371347619047619</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-0.1399630952380953</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-0.1399630952380953</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-0.143360380952381</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-0.143360380952381</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-0.1461644523809525</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-0.1461644523809525</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2635,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2643,7 +2231,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -2661,50 +2249,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.116</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.03964265552643076</v>
+        <v>-0.01196997959183684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.224</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.02634452992573166</v>
+        <v>-0.6682702244897964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.332</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.02924312975098292</v>
+        <v>-0.002771040816326578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.388</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.6797856579292268</v>
+        <v>-0.008190374149659868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.008528757536041973</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>-0.01417997946701617</v>
+        <v>-0.01309573469387761</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_4.xlsx
+++ b/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="24" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="20" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -477,172 +477,184 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1056749761904762</v>
+        <v>-0.07356442857142861</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.1056749761904762</v>
+        <v>-0.07356442857142861</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.01196997959183684</v>
+        <v>-0.04006342241840546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.1014087142857143</v>
+        <v>-0.1034022380952381</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.1014087142857143</v>
+        <v>-0.07375130069555916</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>-0.02965093739967892</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.068</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.6682702244897964</v>
+        <v>-0.02971066506153022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.1051056428571429</v>
+        <v>-0.1140015952380952</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.1015927210884354</v>
+        <v>-0.07393817281968972</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.003512921768707516</v>
+        <v>-0.04006342241840546</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.116</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.002771040816326578</v>
+        <v>-0.03513386623863035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.111867761904762</v>
+        <v>-0.1130656666666667</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.1017767278911564</v>
+        <v>-0.07412504494382026</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.01009103401360556</v>
+        <v>-0.03894062172284647</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.224</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.008190374149659868</v>
+        <v>-0.6913567474585345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.1139307142857144</v>
+        <v>-0.1126659523809525</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.1019607346938775</v>
+        <v>-0.07431191706795082</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.01196997959183684</v>
+        <v>-0.03835403531300165</v>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-0.01309573469387761</v>
+        <v>-0.02578020010700918</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.1131300476190477</v>
+        <v>-0.1086718095238096</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.1021447414965986</v>
+        <v>-0.07449878919208136</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.01098530612244907</v>
-      </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
+        <v>-0.03417302033172825</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
+        <v>-0.376</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-0.0255998511904762</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.107397761904762</v>
+        <v>-0.1083390952380953</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.1023287482993197</v>
+        <v>-0.07468566131621192</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.005069013605442263</v>
-      </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
+        <v>-0.03365343392188343</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>-0.01427676041666678</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.1094662380952381</v>
+        <v>-0.1055349047619048</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.1025127551020408</v>
+        <v>-0.07487253344034246</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.006953482993197341</v>
-      </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
+        <v>-0.03066237132156237</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>-0.00732257738095235</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.1138672380952382</v>
+        <v>-0.1076651428571429</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.1026967619047619</v>
+        <v>-0.07505940556447302</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.01117047619047627</v>
+        <v>-0.03260573729266993</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -650,16 +662,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.1242002857142858</v>
+        <v>-0.1087920476190477</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.102880768707483</v>
+        <v>-0.07524627768860356</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.0213195170068028</v>
+        <v>-0.03354576993044411</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -667,16 +679,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.1293335238095239</v>
+        <v>-0.1136574761904762</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.1030647755102041</v>
+        <v>-0.07543314981273412</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.02626874829931983</v>
+        <v>-0.0382243263777421</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -684,16 +696,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.1394001904761906</v>
+        <v>-0.107126761904762</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.1032487823129252</v>
+        <v>-0.07562002193686466</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.03615140816326541</v>
+        <v>-0.0315067399678973</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -701,16 +713,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.1491316190476192</v>
+        <v>-0.09999528571428579</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.1034327891156463</v>
+        <v>-0.07580689406099522</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.0456988299319729</v>
+        <v>-0.02418839165329056</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -718,16 +730,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.05600000000000001</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1591971428571429</v>
+        <v>-0.09052704761904765</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.1036167959183673</v>
+        <v>-0.07599376618512577</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.05558034693877559</v>
+        <v>-0.01453328143392188</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -735,16 +747,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.1713335238095239</v>
+        <v>-0.09852900000000005</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.1038008027210884</v>
+        <v>-0.07618063830925632</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.0675327210884355</v>
+        <v>-0.02234836169074372</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -752,16 +764,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1829330000000001</v>
+        <v>-0.1005954285714286</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.1039848095238095</v>
+        <v>-0.07636751043338687</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.07894819047619057</v>
+        <v>-0.02422791813804175</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -769,16 +781,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.1939340476190477</v>
+        <v>-0.1062650476190476</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.1041688163265306</v>
+        <v>-0.07655438255751743</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.08976523129251712</v>
+        <v>-0.02971066506153022</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -786,16 +798,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07200000000000001</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.2128682380952382</v>
+        <v>-0.1041316190476191</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.1043528231292517</v>
+        <v>-0.07674125468164797</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1085154149659865</v>
+        <v>-0.02739036436597113</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -803,16 +815,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.07600000000000001</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.2398697142857145</v>
+        <v>-0.09866628571428576</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.1045368299319728</v>
+        <v>-0.07692812680577853</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1353328843537417</v>
+        <v>-0.02173815890850724</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -820,16 +832,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.2743356666666669</v>
+        <v>-0.09500061904761906</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.1047208367346939</v>
+        <v>-0.07711499892990907</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.169614829931973</v>
+        <v>-0.01788562011770999</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -837,16 +849,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.3159325714285716</v>
+        <v>-0.1025325238095238</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.104904843537415</v>
+        <v>-0.07730187105403963</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2110277278911566</v>
+        <v>-0.02523065275548421</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -854,16 +866,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08800000000000001</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.3590581428571431</v>
+        <v>-0.09793109523809526</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.1050888503401361</v>
+        <v>-0.07748874317817017</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2539692925170071</v>
+        <v>-0.02044235205992509</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -871,16 +883,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.4009166666666668</v>
+        <v>-0.1001994761904762</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.1052728571428571</v>
+        <v>-0.07767561530230073</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.2956438095238096</v>
+        <v>-0.0225238608881755</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -888,16 +900,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.4449813333333335</v>
+        <v>-0.0972006666666667</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.1054568639455782</v>
+        <v>-0.07786248742643127</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.3395244693877553</v>
+        <v>-0.01933817924023543</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -905,16 +917,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.4910550476190478</v>
+        <v>-0.09533847619047622</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.1056408707482993</v>
+        <v>-0.07804935955056183</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.3854141768707485</v>
+        <v>-0.01728911663991439</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -922,16 +934,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.5396566190476195</v>
+        <v>-0.1008757142857143</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.1058248775510204</v>
+        <v>-0.07823623167469237</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.4338317414965991</v>
+        <v>-0.02263948261102196</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -939,16 +951,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.5866615714285719</v>
+        <v>-0.1102714285714287</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.1060088843537415</v>
+        <v>-0.07842310379882293</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.4806526870748304</v>
+        <v>-0.03184832477260573</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -956,16 +968,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.6363995238095242</v>
+        <v>-0.111867761904762</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.1061928911564626</v>
+        <v>-0.07860997592295349</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.5302066326530617</v>
+        <v>-0.03325778598180851</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -973,16 +985,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.6779400000000003</v>
+        <v>-0.1139307142857144</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.1063768979591837</v>
+        <v>-0.07879684804708403</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.5715631020408166</v>
+        <v>-0.03513386623863035</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -990,16 +1002,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.7151404285714289</v>
+        <v>-0.1131300476190477</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.1065609047619048</v>
+        <v>-0.07898372017121459</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.6085795238095242</v>
+        <v>-0.03414632744783309</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1007,16 +1019,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.7524742857142861</v>
+        <v>-0.107397761904762</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.1067449115646259</v>
+        <v>-0.07917059229534514</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.6457293741496603</v>
+        <v>-0.02822716960941683</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1024,16 +1036,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.7751991428571434</v>
+        <v>-0.1094662380952381</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.106928918367347</v>
+        <v>-0.07935746441947569</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.6682702244897964</v>
+        <v>-0.03010877367576245</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1041,16 +1053,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.7694000952380957</v>
+        <v>-0.1138672380952382</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.107112925170068</v>
+        <v>-0.07954433654360624</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.6622871700680277</v>
+        <v>-0.03432290155163192</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1058,16 +1070,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.7574650952380957</v>
+        <v>-0.1242002857142858</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.1072969319727891</v>
+        <v>-0.07973120866773679</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.6501681632653066</v>
+        <v>-0.044469077046549</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1075,16 +1087,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.7247368095238099</v>
+        <v>-0.1293335238095239</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.1074809387755102</v>
+        <v>-0.07991808079186734</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.6172558707482997</v>
+        <v>-0.04941544301765656</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1092,16 +1104,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.6813975238095242</v>
+        <v>-0.1394001904761906</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1076649455782313</v>
+        <v>-0.0801049529159979</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.573732578231293</v>
+        <v>-0.05929523756019267</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1109,16 +1121,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.639731904761905</v>
+        <v>-0.1491316190476192</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.1078489523809524</v>
+        <v>-0.08029182504012844</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.5318829523809526</v>
+        <v>-0.06883979400749071</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1126,16 +1138,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.5848639523809527</v>
+        <v>-0.159197142857143</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.1080329591836735</v>
+        <v>-0.080478697164259</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.4768309931972792</v>
+        <v>-0.07871844569288396</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1143,16 +1155,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.5236002857142861</v>
+        <v>-0.1713335238095239</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.1082169659863946</v>
+        <v>-0.08066556928838954</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.4153833197278915</v>
+        <v>-0.09066795452113439</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1160,16 +1172,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.472531523809524</v>
+        <v>-0.1829330000000001</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.1084009727891157</v>
+        <v>-0.0808524414125201</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.3641305510204084</v>
+        <v>-0.10208055858748</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1177,16 +1189,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.4173371904761907</v>
+        <v>-0.1939340476190477</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.1085849795918368</v>
+        <v>-0.08103931353665064</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.3087522108843539</v>
+        <v>-0.1128947340823971</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1194,16 +1206,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.3654690952380955</v>
+        <v>-0.2128682380952382</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1087689863945579</v>
+        <v>-0.0812261856607812</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.2567001088435376</v>
+        <v>-0.131642052434457</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1211,16 +1223,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.3186747619047621</v>
+        <v>-0.2398697142857145</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.1089529931972789</v>
+        <v>-0.08141305778491174</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.2097217687074831</v>
+        <v>-0.1584566565008027</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1228,16 +1240,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.2724724761904763</v>
+        <v>-0.2743356666666669</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.109137</v>
+        <v>-0.0815999299090423</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1633354761904763</v>
+        <v>-0.1927357367576246</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1245,16 +1257,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.2422687142857144</v>
+        <v>-0.3159325714285716</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1093210068027211</v>
+        <v>-0.08178680203317285</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1329477074829933</v>
+        <v>-0.2341457693953987</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1262,16 +1274,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.211928142857143</v>
+        <v>-0.359058142857143</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1095050136054422</v>
+        <v>-0.0819736741573034</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1024231292517008</v>
+        <v>-0.2770844686998397</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1279,16 +1291,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.1925306666666668</v>
+        <v>-0.4009166666666668</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1096890204081633</v>
+        <v>-0.08216054628143395</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.08284164625850349</v>
+        <v>-0.3187561203852329</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1296,16 +1308,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.1787326190476191</v>
+        <v>-0.4449813333333336</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1098730272108844</v>
+        <v>-0.0823474184055645</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.06885959183673472</v>
+        <v>-0.3626339149277691</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1313,16 +1325,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.1658070952380953</v>
+        <v>-0.4910550476190479</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1100570340136055</v>
+        <v>-0.08253429052969505</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.05575006122448986</v>
+        <v>-0.4085207570893529</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1330,16 +1342,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.1496082857142858</v>
+        <v>-0.5396566190476195</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1102410408163266</v>
+        <v>-0.08272116265382561</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.03936724489795923</v>
+        <v>-0.4569354563937939</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1347,16 +1359,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.1358040476190477</v>
+        <v>-0.5866615714285719</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1104250476190477</v>
+        <v>-0.08290803477795616</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.02537900000000003</v>
+        <v>-0.5037535366506157</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1364,16 +1376,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.117600761904762</v>
+        <v>-0.6363995238095244</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1106090544217687</v>
+        <v>-0.08309490690208671</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.006991707482993242</v>
+        <v>-0.5533046169074376</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1381,16 +1393,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.110132761904762</v>
+        <v>-0.6779400000000004</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1107930612244898</v>
+        <v>-0.08328177902621725</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.0006602993197278445</v>
+        <v>-0.5946582209737832</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1398,16 +1410,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.1064016190476191</v>
+        <v>-0.715140428571429</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.1109770680272109</v>
+        <v>-0.08346865115034781</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.004575448979591792</v>
+        <v>-0.6316717774210812</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1415,16 +1427,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.1077350000000001</v>
+        <v>-0.7524742857142862</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.111161074829932</v>
+        <v>-0.08365552327447837</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.003426074829931916</v>
+        <v>-0.6688187624398079</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1432,16 +1444,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.1060683333333334</v>
+        <v>-0.7751991428571434</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1113450816326531</v>
+        <v>-0.08384239539860891</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.005276748299319664</v>
+        <v>-0.6913567474585345</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1449,16 +1461,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.1104002380952382</v>
+        <v>-0.7694000952380959</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1115290884353742</v>
+        <v>-0.08402926752273945</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0.00112885034013599</v>
+        <v>-0.6853708277153565</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1466,16 +1478,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.1140025238095239</v>
+        <v>-0.7574650952380957</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1117130952380953</v>
+        <v>-0.08421613964687001</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.002289428571428637</v>
+        <v>-0.6732489555912257</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1483,16 +1495,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.114668142857143</v>
+        <v>-0.7247368095238098</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1118971020408164</v>
+        <v>-0.08440301177100057</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.002771040816326578</v>
+        <v>-0.6403337977528092</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1500,16 +1512,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.1078001904761906</v>
+        <v>-0.6813975238095242</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.1120811088435375</v>
+        <v>-0.08458988389513111</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.004280918367346898</v>
+        <v>-0.5968076399143931</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1517,16 +1529,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.1063950000000001</v>
+        <v>-0.6397319047619051</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1122651156462586</v>
+        <v>-0.08477675601926167</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.005870115646258486</v>
+        <v>-0.5549551487426434</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1534,16 +1546,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.1037904761904762</v>
+        <v>-0.5848639523809527</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1124491224489796</v>
+        <v>-0.08496362814339221</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.008658646258503405</v>
+        <v>-0.4999003242375605</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1551,16 +1563,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.1090554761904762</v>
+        <v>-0.5236002857142861</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1126331292517007</v>
+        <v>-0.08515050026752277</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.003577653061224512</v>
+        <v>-0.4384497854467633</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1568,16 +1580,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.1070557619047619</v>
+        <v>-0.4725315238095241</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1128171360544218</v>
+        <v>-0.08533737239165332</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0.005761374149659895</v>
+        <v>-0.3871941514178707</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1585,16 +1597,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.09612666666666669</v>
+        <v>-0.4173371904761907</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1130011428571429</v>
+        <v>-0.08552424451578387</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.01687447619047622</v>
+        <v>-0.3318129459604068</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1602,16 +1614,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.09019604761904765</v>
+        <v>-0.3654690952380955</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.113185149659864</v>
+        <v>-0.08571111663991442</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.02298910204081636</v>
+        <v>-0.279757978598181</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1619,16 +1631,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.102935</v>
+        <v>-0.3186747619047621</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1133691564625851</v>
+        <v>-0.08589798876404497</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.01043415646258505</v>
+        <v>-0.2327767731407171</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1636,16 +1648,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.1122037619047619</v>
+        <v>-0.2724724761904763</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1135531632653062</v>
+        <v>-0.08608486088817552</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.001349401360544247</v>
+        <v>-0.1863876153023008</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1653,16 +1665,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.1197349523809524</v>
+        <v>-0.2422687142857144</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1137371700680273</v>
+        <v>-0.08627173301230608</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.005997782312925123</v>
+        <v>-0.1559969812734084</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1670,16 +1682,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.1216632380952381</v>
+        <v>-0.211928142857143</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1139211768707484</v>
+        <v>-0.08645860513643662</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.007742061224489769</v>
+        <v>-0.1254695377207063</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1687,16 +1699,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1112638095238096</v>
+        <v>-0.1925306666666668</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1141051836734694</v>
+        <v>-0.08664547726056718</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.002841374149659889</v>
+        <v>-0.1058851894060996</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1704,16 +1716,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1105951904761905</v>
+        <v>-0.1787326190476191</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1142891904761905</v>
+        <v>-0.08683234938469772</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.003694000000000003</v>
+        <v>-0.09190026966292139</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1721,16 +1733,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1226635714285715</v>
+        <v>-0.1658070952380953</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1144731972789116</v>
+        <v>-0.08701922150882828</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.008190374149659868</v>
+        <v>-0.07878787372926706</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1738,16 +1750,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1205979047619048</v>
+        <v>-0.1496082857142858</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1146572040816327</v>
+        <v>-0.08720609363295882</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.00594070068027211</v>
+        <v>-0.06240219208132698</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1755,16 +1767,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1112605238095239</v>
+        <v>-0.1358040476190477</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1148412108843538</v>
+        <v>-0.08739296575708938</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.003580687074829933</v>
+        <v>-0.0484110818619583</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1772,16 +1784,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1167261904761906</v>
+        <v>-0.117600761904762</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1150252176870749</v>
+        <v>-0.08757983788121992</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.001700972789115685</v>
+        <v>-0.03002092402354206</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1789,16 +1801,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1215958571428573</v>
+        <v>-0.110132761904762</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.115209224489796</v>
+        <v>-0.08776671000535048</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.006386632653061261</v>
+        <v>-0.02236605189941152</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1806,16 +1818,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1231956666666668</v>
+        <v>-0.1064016190476191</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1153932312925171</v>
+        <v>-0.08795358212948103</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.007802435374149694</v>
+        <v>-0.01844803691813811</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1823,16 +1835,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1282644761904763</v>
+        <v>-0.1077350000000001</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1155772380952382</v>
+        <v>-0.08814045425361158</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.01268723809523811</v>
+        <v>-0.01959454574638853</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1840,16 +1852,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.1192653333333334</v>
+        <v>-0.1060683333333334</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1157612448979593</v>
+        <v>-0.08832732637774213</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.003504088435374142</v>
+        <v>-0.0177410069555913</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1857,16 +1869,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1102002380952382</v>
+        <v>-0.1104002380952382</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1159452517006803</v>
+        <v>-0.08851419850187268</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.005745013605442148</v>
+        <v>-0.02188603959336553</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1874,16 +1886,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1200728571428573</v>
+        <v>-0.1140025238095239</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1161292585034014</v>
+        <v>-0.08870107062600324</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.003943598639455814</v>
+        <v>-0.02530145318352067</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1891,16 +1903,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1294090000000001</v>
+        <v>-0.114668142857143</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1163132653061225</v>
+        <v>-0.08888794275013379</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.01309573469387761</v>
+        <v>-0.02578020010700918</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1908,16 +1920,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1264088095238096</v>
+        <v>-0.1078001904761906</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1164972721088436</v>
+        <v>-0.08907481487426433</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.009911537414965976</v>
+        <v>-0.01872537560192625</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1925,16 +1937,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1247368571428572</v>
+        <v>-0.1063950000000001</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1166812789115647</v>
+        <v>-0.08926168699839489</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.008055578231292479</v>
+        <v>-0.01713331300160519</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1942,16 +1954,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1168652857142858</v>
+        <v>-0.1037904761904763</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1168652857142858</v>
+        <v>-0.08944855912252545</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>1.387778780781446e-17</v>
+        <v>-0.01434191706795081</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1959,16 +1971,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1201924285714287</v>
+        <v>-0.1090554761904762</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1201924285714287</v>
+        <v>-0.08963543124665599</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0</v>
+        <v>-0.01942004494382024</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1976,16 +1988,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.1310604285714287</v>
+        <v>-0.1070557619047619</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1310604285714287</v>
+        <v>-0.08982230337078655</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0</v>
+        <v>-0.01723345853397538</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1993,16 +2005,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1380629523809525</v>
+        <v>-0.09612666666666669</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1380629523809525</v>
+        <v>-0.09000917549491709</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0</v>
+        <v>-0.006117491171749603</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2010,13 +2022,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1342650476190477</v>
+        <v>-0.09019604761904765</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1342650476190477</v>
+        <v>-0.09019604761904765</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2027,16 +2039,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1343960000000001</v>
+        <v>-0.1029350000000001</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1343960000000001</v>
+        <v>-0.09166288244047621</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0</v>
+        <v>-0.01127211755952384</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2044,16 +2056,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1284632857142858</v>
+        <v>-0.1122037619047619</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1284632857142858</v>
+        <v>-0.0931297172619048</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>-0.01907404464285714</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2061,16 +2073,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.129858380952381</v>
+        <v>-0.1197349523809524</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.129858380952381</v>
+        <v>-0.09459655208333337</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0</v>
+        <v>-0.02513840029761905</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2078,16 +2090,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.13859</v>
+        <v>-0.1216632380952381</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.13859</v>
+        <v>-0.09606338690476193</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0</v>
+        <v>-0.0255998511904762</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2095,16 +2107,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1357270952380953</v>
+        <v>-0.1112638095238096</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1357270952380953</v>
+        <v>-0.09753022172619052</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0</v>
+        <v>-0.01373358779761903</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2112,16 +2124,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1364639047619048</v>
+        <v>-0.1105951904761905</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1364639047619048</v>
+        <v>-0.09899705654761909</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0</v>
+        <v>-0.01159813392857145</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2129,16 +2141,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1389345238095239</v>
+        <v>-0.1226635714285715</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1389345238095239</v>
+        <v>-0.1004638913690477</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>-0.02219968005952386</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2146,16 +2158,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.137134761904762</v>
+        <v>-0.1205979047619048</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.137134761904762</v>
+        <v>-0.1019307261904762</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0</v>
+        <v>-0.01866717857142858</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2163,16 +2175,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1399630952380954</v>
+        <v>-0.1112605238095239</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1399630952380954</v>
+        <v>-0.1033975610119048</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0</v>
+        <v>-0.007862962797619069</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2180,16 +2192,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1433603809523811</v>
+        <v>-0.1167261904761906</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1433603809523811</v>
+        <v>-0.1048643958333334</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0</v>
+        <v>-0.01186179464285721</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2197,20 +2209,428 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1461644523809525</v>
+        <v>-0.1215958571428573</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1461644523809525</v>
+        <v>-0.106331230654762</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0</v>
+        <v>-0.01526462648809529</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-0.1231956666666668</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-0.1077980654761905</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>-0.01539760119047624</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-0.1282644761904763</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-0.1092649002976191</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>-0.01899957589285717</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-0.1192653333333334</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-0.1107317351190477</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>-0.008533598214285718</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-0.1102002380952382</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-0.1121985699404763</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>0.001998331845238052</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-0.1200728571428573</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-0.1136654047619048</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>-0.006407452380952444</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-0.1294090000000002</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-0.1151322395833334</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>-0.01427676041666678</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-0.1264088095238096</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-0.116599074404762</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>-0.009809735119047647</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-0.1247368571428572</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-0.1180659092261905</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>-0.00667094791666667</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-0.1168652857142858</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-0.1195327440476191</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0.002667458333333317</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-0.1201924285714287</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-0.1209995788690477</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0.0008071502976190192</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-0.1310604285714287</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-0.1224664136904763</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>-0.008594014880952405</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-0.1380629523809525</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-0.1239332485119048</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>-0.01412970386904766</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-0.1342650476190477</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-0.1254000833333334</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>-0.008864964285714289</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-0.1343960000000001</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-0.126866918154762</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>-0.007529081845238095</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-0.1284632857142858</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-0.1283337529761906</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>-0.0001295327380952116</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-0.129858380952381</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-0.1298005877976191</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>-5.779315476189817e-05</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-0.13859</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-0.1312674226190477</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>-0.00732257738095235</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-0.1357270952380953</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-0.1327342574404763</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>-0.002992837797619025</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-0.1364639047619048</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-0.1342010922619049</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>-0.002262812499999989</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-0.1389345238095239</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-0.1356679270833334</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>-0.003266596726190479</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-0.137134761904762</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-0.137134761904762</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-0.1399630952380954</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-0.1399630952380954</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-0.1433603809523811</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-0.1433603809523811</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-0.1461644523809526</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-0.1461644523809526</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2223,7 +2643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2231,7 +2651,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -2249,42 +2669,66 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.01196997959183684</v>
+        <v>-0.04006342241840546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.068</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.6682702244897964</v>
+        <v>-0.02971066506153022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.116</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.002771040816326578</v>
+        <v>-0.03513386623863035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.224</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.008190374149659868</v>
+        <v>-0.6913567474585345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>-0.332</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-0.02578020010700918</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>-0.376</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>-0.0255998511904762</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>-0.428</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>-0.01309573469387761</v>
+      <c r="B8" s="2" t="n">
+        <v>-0.01427676041666678</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>-0.00732257738095235</v>
       </c>
     </row>
   </sheetData>
